--- a/public/template/Students Template.xlsx
+++ b/public/template/Students Template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Fiq265\Resume\Student QR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2D63EBC-6596-4DCE-9069-2834830BA3CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20DC9565-FA55-4DFF-ACEC-12C1FB6538BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="390" windowWidth="25710" windowHeight="11265" xr2:uid="{CD2FBC97-AF88-464F-B411-F9829D2B5A72}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{CD2FBC97-AF88-464F-B411-F9829D2B5A72}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="17">
   <si>
     <t>name</t>
   </si>
@@ -48,6 +48,45 @@
   </si>
   <si>
     <t>contact</t>
+  </si>
+  <si>
+    <t>Ali</t>
+  </si>
+  <si>
+    <t>Abu</t>
+  </si>
+  <si>
+    <t>Muthu</t>
+  </si>
+  <si>
+    <t>Berlian</t>
+  </si>
+  <si>
+    <t>Zamrud</t>
+  </si>
+  <si>
+    <t>Delima</t>
+  </si>
+  <si>
+    <t>0112111111</t>
+  </si>
+  <si>
+    <t>0113111111</t>
+  </si>
+  <si>
+    <t>0114111111</t>
+  </si>
+  <si>
+    <t>Zara</t>
+  </si>
+  <si>
+    <t>Iman</t>
+  </si>
+  <si>
+    <t>Zul</t>
+  </si>
+  <si>
+    <t>0115111111</t>
   </si>
 </sst>
 </file>
@@ -400,10 +439,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A887D24-6791-4F04-837D-42D9D5880799}">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="A2:D4"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -426,13 +465,105 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D2" s="1"/>
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2">
+        <v>2</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D3" s="1"/>
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D4" s="1"/>
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4">
+        <v>3</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5">
+        <v>2</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7">
+        <v>3</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8">
+        <v>3</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9">
+        <v>2</v>
+      </c>
+      <c r="D9" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
